--- a/data/countries/dominican_republic/original/Plantilla de presentación de objetivos ABRIL2025.xlsx
+++ b/data/countries/dominican_republic/original/Plantilla de presentación de objetivos ABRIL2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leaphillips/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienmhp/Desktop/undp/TargetAssessmentReport/data/countries/dominican_republic/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAC7CDA-0F8C-054B-B6E7-2C37557FED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC79943-7BC5-3943-B607-44C40F70882A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="780" windowWidth="34560" windowHeight="19880" activeTab="2" xr2:uid="{DEEEC7F9-3CF8-3B41-8A3C-C00A8EC6877F}"/>
+    <workbookView xWindow="17100" yWindow="0" windowWidth="17100" windowHeight="22240" activeTab="2" xr2:uid="{DEEEC7F9-3CF8-3B41-8A3C-C00A8EC6877F}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="3" r:id="rId1"/>
@@ -3226,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BFC3CA-1FE3-3349-BC0C-2726EB748AF3}">
   <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6884,17 +6884,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a236eee0-dfe7-41fa-863c-f8b5736ab75b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001577CA56F8CF414FA01735147A342F5E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15ebec4ab82c4afa1bee2c7efe3711a0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295" xmlns:ns3="a236eee0-dfe7-41fa-863c-f8b5736ab75b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f312e4fff05bdb9aa5c3ccce3cb8bc17" ns2:_="" ns3:_="">
     <xsd:import namespace="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295"/>
@@ -7095,6 +7084,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a236eee0-dfe7-41fa-863c-f8b5736ab75b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{763F3F5B-9E6A-4FF6-B85F-05017C0A15A3}">
   <ds:schemaRefs>
@@ -7104,17 +7104,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5717194-067C-4374-A107-DFF748879117}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295"/>
-    <ds:schemaRef ds:uri="a236eee0-dfe7-41fa-863c-f8b5736ab75b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF54FAE-7088-46A3-A711-60C9762A5859}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7131,4 +7120,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5717194-067C-4374-A107-DFF748879117}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295"/>
+    <ds:schemaRef ds:uri="a236eee0-dfe7-41fa-863c-f8b5736ab75b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>